--- a/src/test/resources/data/nominaciones/planeador/asignacion.xlsx
+++ b/src/test/resources/data/nominaciones/planeador/asignacion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\cenit-cp\src\test\resources\data\nominaciones\planeador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3143500C-BFC2-4FF3-BA92-BFF1C94B34CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C757A49-6E9C-4449-AF17-261E72F58D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -476,7 +476,7 @@
   <dimension ref="A1:N1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
